--- a/templates/Шаблон ПКО1.xlsx
+++ b/templates/Шаблон ПКО1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\AltTech\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF7FBE7-0735-480F-932D-5558540B2B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755" tabRatio="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Унифицированная форма КО-1</t>
   </si>
@@ -157,11 +163,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0000000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -198,6 +204,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -379,175 +391,136 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -558,13 +531,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -573,13 +546,13 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -603,9 +576,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -643,7 +616,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -677,6 +650,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -711,9 +685,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -886,7 +861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
@@ -894,39 +869,44 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="1" style="1" customWidth="1"/>
-    <col min="11" max="11" width="2.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="2.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="2.1640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="2.140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.1640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="1.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="1.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="40" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="11.85" customHeight="1">
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+    </row>
+    <row r="2" spans="1:17" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -939,23 +919,21 @@
         <v>2</v>
       </c>
       <c r="J2"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
       <c r="Q2"/>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="8.1" customHeight="1">
-      <c r="K3" s="49"/>
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="40"/>
       <c r="L3" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="13.35" customHeight="1">
+    <row r="4" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -963,12 +941,12 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="39"/>
+      <c r="I4" s="38"/>
       <c r="J4"/>
-      <c r="K4" s="49"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="4" t="s">
         <v>30</v>
       </c>
@@ -978,488 +956,463 @@
       <c r="P4"/>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" ht="20.85" customHeight="1">
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="57">
+      <c r="H5" s="44">
         <v>310001</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="47" t="s">
+      <c r="I5" s="44"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="36"/>
-    </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" ht="20.85" customHeight="1">
-      <c r="B6" s="47" t="s">
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="26"/>
+    </row>
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="20.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="K6" s="49"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="K6" s="40"/>
       <c r="L6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="58"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-    </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" ht="8.1" customHeight="1">
+      <c r="M6" s="45"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+    </row>
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="K7" s="49"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-    </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" ht="12.6" customHeight="1">
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="8" t="s">
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="K7" s="40"/>
+    </row>
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-    </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" ht="8.1" customHeight="1">
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+    </row>
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="49"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-    </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="3" customHeight="1">
-      <c r="K10" s="49"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-    </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="12">
-      <c r="E11" s="11" t="s">
+      <c r="K9" s="40"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+    </row>
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K10" s="40"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+    </row>
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="E11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="39" t="s">
+      <c r="G11" s="48"/>
+      <c r="H11" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="39"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="24"/>
-    </row>
-    <row r="12" spans="1:17" ht="12">
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="65"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="48" t="s">
+      <c r="I11" s="38"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="19"/>
+    </row>
+    <row r="12" spans="1:17" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="52"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-    </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" ht="6" customHeight="1">
-      <c r="K13" s="49"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-    </row>
-    <row r="14" spans="1:17" s="12" customFormat="1" ht="12.6" customHeight="1">
-      <c r="B14" s="39" t="s">
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+    </row>
+    <row r="13" spans="1:17" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="40"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+    </row>
+    <row r="14" spans="1:17" s="10" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39" t="s">
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="62" t="s">
+      <c r="H14" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="31" t="s">
+      <c r="I14" s="38"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-    </row>
-    <row r="15" spans="1:17" s="12" customFormat="1" ht="12" customHeight="1">
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="43" t="s">
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+    </row>
+    <row r="15" spans="1:17" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="39"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-    </row>
-    <row r="16" spans="1:17" s="12" customFormat="1" ht="12" customHeight="1">
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="39"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-    </row>
-    <row r="17" spans="2:16" s="12" customFormat="1" ht="12" customHeight="1">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="39"/>
-      <c r="K17" s="49"/>
-    </row>
-    <row r="18" spans="2:16" s="1" customFormat="1" ht="20.85" customHeight="1">
-      <c r="B18" s="26" t="s">
+      <c r="G15" s="38"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="38"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+    </row>
+    <row r="16" spans="1:17" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="38"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+    </row>
+    <row r="17" spans="2:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="38"/>
+      <c r="K17" s="40"/>
+    </row>
+    <row r="18" spans="2:16" s="1" customFormat="1" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="27" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="8" t="s">
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-    </row>
-    <row r="19" spans="2:16" s="1" customFormat="1" ht="8.1" customHeight="1">
-      <c r="K19" s="49"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+    </row>
+    <row r="19" spans="2:16" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="40"/>
       <c r="M19" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
-      <c r="B20" s="8" t="s">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-    </row>
-    <row r="21" spans="2:16" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="K21" s="49"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="34" t="s">
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+    </row>
+    <row r="21" spans="2:16" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K21" s="40"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="P21" s="28"/>
-    </row>
-    <row r="22" spans="2:16">
-      <c r="B22" s="8" t="s">
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="25" t="s">
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-    </row>
-    <row r="23" spans="2:16" s="1" customFormat="1" ht="9.75" customHeight="1">
-      <c r="B23" s="37"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="K23" s="49"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+    </row>
+    <row r="23" spans="2:16" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="27"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="K23" s="40"/>
       <c r="L23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:16" ht="4.5" customHeight="1">
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="50" t="s">
+    <row r="24" spans="2:16" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-    </row>
-    <row r="25" spans="2:16" s="1" customFormat="1" ht="9.75" customHeight="1">
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-    </row>
-    <row r="26" spans="2:16">
-      <c r="B26" s="8" t="s">
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+    </row>
+    <row r="25" spans="2:16" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K25" s="40"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-    </row>
-    <row r="27" spans="2:16" s="1" customFormat="1" ht="9" customHeight="1">
-      <c r="K27" s="49"/>
-    </row>
-    <row r="28" spans="2:16" ht="12.95" customHeight="1">
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="29" t="s">
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+    </row>
+    <row r="27" spans="2:16" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K27" s="40"/>
+    </row>
+    <row r="28" spans="2:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="29" t="s">
+      <c r="H28" s="21"/>
+      <c r="I28" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K28" s="49"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-    </row>
-    <row r="29" spans="2:16" s="1" customFormat="1" ht="8.1" customHeight="1">
-      <c r="K29" s="49"/>
-    </row>
-    <row r="30" spans="2:16">
-      <c r="B30" s="19" t="s">
+      <c r="K28" s="40"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+    </row>
+    <row r="29" spans="2:16" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K29" s="40"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="20" t="s">
+      <c r="K30" s="40"/>
+      <c r="L30" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:16" s="1" customFormat="1" ht="8.1" customHeight="1">
-      <c r="K31" s="49"/>
-    </row>
-    <row r="32" spans="2:16">
-      <c r="B32" s="8" t="s">
+    <row r="31" spans="2:16" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K31" s="40"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="21" t="s">
+      <c r="K32" s="40"/>
+      <c r="L32" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="1" customFormat="1" ht="6.75" customHeight="1">
-      <c r="K33" s="49"/>
-    </row>
-    <row r="34" spans="1:17" ht="11.85" customHeight="1">
+    <row r="33" spans="1:17" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K33" s="40"/>
+    </row>
+    <row r="34" spans="1:17" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34"/>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="18" t="s">
         <v>45</v>
       </c>
       <c r="C34"/>
-      <c r="D34" s="22"/>
+      <c r="D34" s="19"/>
       <c r="E34"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
       <c r="I34"/>
       <c r="J34"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="22"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="19"/>
       <c r="M34"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
       <c r="Q34"/>
     </row>
-    <row r="35" spans="1:17" s="1" customFormat="1" ht="8.1" customHeight="1">
-      <c r="D35" s="23" t="s">
+    <row r="35" spans="1:17" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D35" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K35" s="49"/>
-      <c r="L35" s="23" t="s">
+      <c r="K35" s="40"/>
+      <c r="L35" s="20" t="s">
         <v>27</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="1" customFormat="1" ht="9.75" customHeight="1">
-      <c r="K36" s="49"/>
-      <c r="L36" s="21" t="s">
+    <row r="36" spans="1:17" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K36" s="40"/>
+      <c r="L36" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
-      <c r="B37" s="21" t="s">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B37" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="22"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="52"/>
-    </row>
-    <row r="38" spans="1:17" s="1" customFormat="1" ht="8.1" customHeight="1">
-      <c r="D38" s="23" t="s">
+      <c r="D37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="19"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+    </row>
+    <row r="38" spans="1:17" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D38" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K38" s="49"/>
-      <c r="L38" s="23" t="s">
+      <c r="K38" s="40"/>
+      <c r="L38" s="20" t="s">
         <v>27</v>
       </c>
       <c r="N38" s="3" t="s">
@@ -1468,18 +1421,10 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="M8:Q10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
     <mergeCell ref="M12:P16"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:G17"/>
     <mergeCell ref="M28:P28"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="I14:I17"/>
@@ -1491,19 +1436,27 @@
     <mergeCell ref="M18:P18"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="C26:I26"/>
-    <mergeCell ref="L2:P2"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="M6:P6"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="L1:P2"/>
     <mergeCell ref="C22:I23"/>
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="F15:F17"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="H7:I8"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="M8:Q10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.17" top="0.51" bottom="1" header="0.36" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
